--- a/src/UntappdViewer.Reporting/Resources/AllCheckinsTemplate.xlsx
+++ b/src/UntappdViewer.Reporting/Resources/AllCheckinsTemplate.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\work\Test\Untappd\UntappdViewer\src\UntappdViewer.Reporting\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B0DE735-8E89-47B6-8450-D120E864B1E8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{355DA7FC-0416-40C7-BAC2-C66C6049576D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="2430" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Checkins" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Checkins!$B$2:$D$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Checkins!$B$1:$D$1</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -25,19 +25,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t xml:space="preserve"> пивоварня</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> пиво</t>
-  </si>
-  <si>
     <t>#</t>
   </si>
   <si>
-    <t xml:space="preserve"> рейтинг</t>
+    <t xml:space="preserve"> Brewery</t>
   </si>
   <si>
-    <t xml:space="preserve"> дата</t>
+    <t xml:space="preserve"> Beer</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RatingScore</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CreatedDate</t>
   </si>
 </sst>
 </file>
@@ -115,13 +115,10 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -468,29 +465,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="9.28515625" style="3"/>
+    <col min="1" max="1" width="7.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="26" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18" style="2" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.28515625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -499,15 +499,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-    </row>
   </sheetData>
-  <autoFilter ref="B2:D2" xr:uid="{BC0C0F08-B1D2-49FE-A2D1-00E0401FADF3}"/>
+  <autoFilter ref="B1:D1" xr:uid="{5BA10DB2-4E5F-4297-BBCF-8BF5C8CA606F}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/src/UntappdViewer.Reporting/Resources/AllCheckinsTemplate.xlsx
+++ b/src/UntappdViewer.Reporting/Resources/AllCheckinsTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\work\Test\Untappd\UntappdViewer\src\UntappdViewer.Reporting\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{355DA7FC-0416-40C7-BAC2-C66C6049576D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B00767-AE3F-477F-A55B-C481CD76C9EF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Checkins" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Checkins!$B$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Checkins!$B$1:$E$1</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>#</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t xml:space="preserve"> CreatedDate</t>
+  </si>
+  <si>
+    <t>Country</t>
   </si>
 </sst>
 </file>
@@ -465,7 +468,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -475,32 +478,36 @@
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="26" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18" style="2" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9.28515625" style="2"/>
+    <col min="2" max="2" width="14.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9.28515625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:D1" xr:uid="{5BA10DB2-4E5F-4297-BBCF-8BF5C8CA606F}"/>
+  <autoFilter ref="B1:E1" xr:uid="{4F3AA984-C1AB-44CB-9EDF-7D6FF2D4187D}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/src/UntappdViewer.Reporting/Resources/AllCheckinsTemplate.xlsx
+++ b/src/UntappdViewer.Reporting/Resources/AllCheckinsTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\work\Test\Untappd\UntappdViewer\src\UntappdViewer.Reporting\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B00767-AE3F-477F-A55B-C481CD76C9EF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C59909B-F206-4148-9C2E-7D6C0D364594}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,8 @@
     <sheet name="Checkins" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Checkins!$B$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Checkins!$B$4:$E$4</definedName>
+    <definedName name="Today">Checkins!$A$3</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -86,7 +87,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -109,6 +110,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -118,13 +128,16 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -146,6 +159,69 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1866900</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1790700</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>147320</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41468D71-BA25-4568-874D-DAA86E0012FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:duotone>
+            <a:prstClr val="black"/>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+              <a:tint val="45000"/>
+              <a:satMod val="400000"/>
+            </a:schemeClr>
+          </a:duotone>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3181350" y="19050"/>
+          <a:ext cx="2047875" cy="518795"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -468,47 +544,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F1"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="26" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="40" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" style="2" customWidth="1"/>
     <col min="7" max="16384" width="9.28515625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:E1" xr:uid="{4F3AA984-C1AB-44CB-9EDF-7D6FF2D4187D}"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <autoFilter ref="B4:E4" xr:uid="{4F3AA984-C1AB-44CB-9EDF-7D6FF2D4187D}"/>
+  <mergeCells count="1">
+    <mergeCell ref="A3:B3"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="78" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/UntappdViewer.Reporting/Resources/AllCheckinsTemplate.xlsx
+++ b/src/UntappdViewer.Reporting/Resources/AllCheckinsTemplate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\work\Test\Untappd\UntappdViewer\src\UntappdViewer.Reporting\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C59909B-F206-4148-9C2E-7D6C0D364594}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A563B09-2EE9-4D64-AC12-8CB7CFD6490A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25320" yWindow="2430" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Checkins" sheetId="3" r:id="rId1"/>
@@ -49,10 +49,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -123,10 +123,10 @@
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -558,7 +558,7 @@
     <col min="3" max="3" width="31.85546875" style="2" customWidth="1"/>
     <col min="4" max="4" width="40" style="2" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="18.5703125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" style="2" customWidth="1"/>
     <col min="7" max="16384" width="9.28515625" style="2"/>
   </cols>
   <sheetData>
